--- a/datasets/M1_riskprem_exante.xlsx
+++ b/datasets/M1_riskprem_exante.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
         <v>40575</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1002866673232356</v>
+        <v>-0.1128139318307333</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         <v>40603</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1316263640229046</v>
+        <v>-0.1590185959641735</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>40634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1598219962835198</v>
+        <v>0.08116834773339909</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         <v>40664</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02360980139520382</v>
+        <v>-0.004805640608048058</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>40695</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03752407641115227</v>
+        <v>-0.01831701506549387</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         <v>40725</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00950688483117048</v>
+        <v>0.0209846311029404</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>40756</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1183708598748081</v>
+        <v>-0.1338815009914761</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>40787</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02692602975129144</v>
+        <v>0.02166478363097919</v>
       </c>
     </row>
     <row r="10">
@@ -513,7 +513,7 @@
         <v>40817</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2449182360516381</v>
+        <v>0.2311184562297607</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         <v>40848</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1150016200790608</v>
+        <v>0.09810448560306254</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>40878</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05820263223423985</v>
+        <v>0.07134499894006352</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>40909</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004326650629714892</v>
+        <v>-0.04823731067857091</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>40940</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0475397240264683</v>
+        <v>-0.08379272521033153</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>40969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1850229444798527</v>
+        <v>0.06042227668225897</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +561,7 @@
         <v>41000</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.05686341659865868</v>
+        <v>-0.08554761459336865</v>
       </c>
     </row>
     <row r="17">
@@ -569,7 +569,7 @@
         <v>41030</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1852520260377109</v>
+        <v>-0.1749659613201915</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>41061</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06113730539962702</v>
+        <v>0.01086506822629616</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +585,7 @@
         <v>41091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01848778187333439</v>
+        <v>-0.0288196841721399</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +593,7 @@
         <v>41122</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07203863641406665</v>
+        <v>0.01392233719800221</v>
       </c>
     </row>
     <row r="21">
@@ -601,7 +601,7 @@
         <v>41153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1257176274347082</v>
+        <v>0.1139708062559898</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +609,7 @@
         <v>41183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1005922613450221</v>
+        <v>0.1020676655190332</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>41214</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06931632883483105</v>
+        <v>0.05909832665100666</v>
       </c>
     </row>
     <row r="24">
@@ -625,7 +625,7 @@
         <v>41244</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1557856298721913</v>
+        <v>0.08706566837570665</v>
       </c>
     </row>
     <row r="25">
@@ -633,7 +633,7 @@
         <v>41275</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1558247662266782</v>
+        <v>0.0807242388947417</v>
       </c>
     </row>
     <row r="26">
@@ -641,7 +641,7 @@
         <v>41306</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003317790381420157</v>
+        <v>0.01986164434823218</v>
       </c>
     </row>
     <row r="27">
@@ -649,615 +649,655 @@
         <v>41334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04133681814566414</v>
+        <v>-0.03574814828999564</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41518</v>
+        <v>41365</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09934370657849199</v>
+        <v>-0.1210657879438811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41548</v>
+        <v>41395</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1448536952448242</v>
+        <v>-0.149126182433529</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41579</v>
+        <v>41426</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03513586320672141</v>
+        <v>-0.2159994359412524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41609</v>
+        <v>41456</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02655686514916452</v>
+        <v>-0.08151405636122633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41640</v>
+        <v>41487</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1088850012434914</v>
+        <v>0.1644456711645437</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41671</v>
+        <v>41518</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01604888490853735</v>
+        <v>0.07700951288182539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41699</v>
+        <v>41548</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.06743689183792957</v>
+        <v>0.1167471432273345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41730</v>
+        <v>41579</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.05831684850195231</v>
+        <v>0.01897250472059069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41760</v>
+        <v>41609</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0579584829435274</v>
+        <v>-0.09254724663565823</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41791</v>
+        <v>41640</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.03538349374126767</v>
+        <v>0.0449336687036867</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41821</v>
+        <v>41671</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003136579183316681</v>
+        <v>-0.03081830214001653</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41852</v>
+        <v>41699</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.07358835387106144</v>
+        <v>-0.09286335489468268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41883</v>
+        <v>41730</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02694638605655411</v>
+        <v>-0.1191222548114558</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41913</v>
+        <v>41760</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08358757932216571</v>
+        <v>-0.1382402523765891</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41944</v>
+        <v>41791</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09512410149379513</v>
+        <v>-0.1028750409266718</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41974</v>
+        <v>41821</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01850162785563186</v>
+        <v>0.02718095423802299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42005</v>
+        <v>41852</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08297309439459816</v>
+        <v>-0.04321788382358931</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42036</v>
+        <v>41883</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.06858117486081169</v>
+        <v>0.02022034903740829</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42064</v>
+        <v>41913</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4521284164180398</v>
+        <v>0.05430405326955228</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42095</v>
+        <v>41944</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.02310262601440803</v>
+        <v>0.05293825574499456</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42125</v>
+        <v>41974</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.08808672091424073</v>
+        <v>-0.03170754003714037</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42156</v>
+        <v>42005</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08915489582283546</v>
+        <v>0.04037821749428593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42186</v>
+        <v>42036</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1222637044288894</v>
+        <v>-0.05874534279648624</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42217</v>
+        <v>42064</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1507450814101806</v>
+        <v>0.3022887418623312</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42248</v>
+        <v>42095</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04679127450019081</v>
+        <v>-0.07099978177096745</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42278</v>
+        <v>42125</v>
       </c>
       <c r="B53" t="n">
-        <v>0.106320494973083</v>
+        <v>-0.1091162278053794</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42309</v>
+        <v>42156</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1179023877039521</v>
+        <v>0.06270515779700965</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42339</v>
+        <v>42186</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.009940123782664546</v>
+        <v>0.0918209929672333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42370</v>
+        <v>42217</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.03721105933754964</v>
+        <v>0.07063945997025223</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42401</v>
+        <v>42248</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.02776198089673831</v>
+        <v>0.04831621862899529</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42430</v>
+        <v>42278</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.07556369368648921</v>
+        <v>0.07947419296853805</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42461</v>
+        <v>42309</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1334185286997026</v>
+        <v>0.05946452907530549</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42491</v>
+        <v>42339</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01764045395119754</v>
+        <v>-0.08303039647129175</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42522</v>
+        <v>42370</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.02242186889591967</v>
+        <v>-0.1332237501111155</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42552</v>
+        <v>42401</v>
       </c>
       <c r="B62" t="n">
-        <v>0.122220340995028</v>
+        <v>-0.009466135938641759</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42583</v>
+        <v>42430</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04294068240937411</v>
+        <v>-0.1479219832609015</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42614</v>
+        <v>42461</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.01598002747198377</v>
+        <v>0.03718955766817485</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42644</v>
+        <v>42491</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.05670807588901713</v>
+        <v>-0.09955652155728013</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42675</v>
+        <v>42522</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2561934394400704</v>
+        <v>-0.008916688033231097</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42705</v>
+        <v>42552</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1344909817375928</v>
+        <v>0.1299901584172396</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42736</v>
+        <v>42583</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.02869863067217316</v>
+        <v>0.01129637571998263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42767</v>
+        <v>42614</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09565515054196017</v>
+        <v>-0.01763798796760375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42795</v>
+        <v>42644</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1418162997317635</v>
+        <v>-0.01448328385637244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42826</v>
+        <v>42675</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3139746643636455</v>
+        <v>0.2402357833696585</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42856</v>
+        <v>42705</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.009710782048771013</v>
+        <v>0.1014221044198259</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42887</v>
+        <v>42736</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.03568468816826498</v>
+        <v>-0.03145287948419077</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42917</v>
+        <v>42767</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03598815597723261</v>
+        <v>0.03396776437713749</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42948</v>
+        <v>42795</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.01727300933990903</v>
+        <v>-0.1221589488624047</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42979</v>
+        <v>42826</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.05323403086622164</v>
+        <v>-0.3124092636853198</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43009</v>
+        <v>42856</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02667127213806968</v>
+        <v>-0.04698256433468109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43040</v>
+        <v>42887</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1244899714759252</v>
+        <v>-0.04365406517684721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43070</v>
+        <v>42917</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07446578126577541</v>
+        <v>0.01191128209193795</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43101</v>
+        <v>42948</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0700782695178821</v>
+        <v>-0.04012136639734858</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43132</v>
+        <v>42979</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03084628614145373</v>
+        <v>-0.06240242897430812</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43160</v>
+        <v>43009</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1360791516888032</v>
+        <v>0.04868487538472536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43191</v>
+        <v>43040</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006839506065373618</v>
+        <v>0.1032424267801386</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43221</v>
+        <v>43070</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1274487425532912</v>
+        <v>-0.01120882979129306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43252</v>
+        <v>43101</v>
       </c>
       <c r="B85" t="n">
-        <v>0.100012987524949</v>
+        <v>0.106998480030969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43282</v>
+        <v>43132</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1946698196459571</v>
+        <v>0.02068666653170607</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43313</v>
+        <v>43160</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1144101703935971</v>
+        <v>0.04900468164461487</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43344</v>
+        <v>43191</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1659640970379913</v>
+        <v>-0.05807157667395457</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43374</v>
+        <v>43221</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2128651159891319</v>
+        <v>-0.1363490589066308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43405</v>
+        <v>43252</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08438758702791492</v>
+        <v>0.08854077062094189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43435</v>
+        <v>43282</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1983350605245273</v>
+        <v>0.1947835231641452</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43466</v>
+        <v>43313</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3586472349364812</v>
+        <v>0.09617236824769794</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43497</v>
+        <v>43344</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2920202425480853</v>
+        <v>0.1764795856839442</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43525</v>
+        <v>43374</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.01731731025894193</v>
+        <v>0.1986840004637654</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43556</v>
+        <v>43405</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.0502770769992912</v>
+        <v>0.0930327757878619</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43586</v>
+        <v>43435</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3404882380576982</v>
+        <v>0.1646369680319925</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43617</v>
+        <v>43466</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1813895005112035</v>
+        <v>0.3174816609468662</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43647</v>
+        <v>43497</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09387324844536792</v>
+        <v>0.3029519483963175</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43678</v>
+        <v>43525</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5142376921541496</v>
+        <v>-0.01234552724994318</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43709</v>
+        <v>43556</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2102954275969741</v>
+        <v>-0.0787792657308993</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43739</v>
+        <v>43586</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2235781029943519</v>
+        <v>0.3007358815054043</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43770</v>
+        <v>43617</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2993039960305173</v>
+        <v>0.1731168587713174</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1008413720837392</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.489920619217686</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.2087112300810119</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.2185534066044846</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.2890828459921159</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B103" t="n">
-        <v>0.1043751935552484</v>
+      <c r="B108" t="n">
+        <v>0.07840523642500051</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/M1_riskprem_exante.xlsx
+++ b/datasets/M1_riskprem_exante.xlsx
@@ -449,7 +449,7 @@
         <v>40575</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1128139318307333</v>
+        <v>-0.02564443535331167</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         <v>40603</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1590185959641735</v>
+        <v>-0.0819407396473875</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>40634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08116834773339909</v>
+        <v>0.139273263933123</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         <v>40664</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.004805640608048058</v>
+        <v>0.02533359595595372</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>40695</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01831701506549387</v>
+        <v>-0.008263878792215721</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         <v>40725</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0209846311029404</v>
+        <v>0.03012009624468408</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>40756</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1338815009914761</v>
+        <v>-0.1043178430834822</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>40787</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02166478363097919</v>
+        <v>0.1011248330850395</v>
       </c>
     </row>
     <row r="10">
@@ -513,7 +513,7 @@
         <v>40817</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2311184562297607</v>
+        <v>0.2766260279289899</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         <v>40848</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09810448560306254</v>
+        <v>0.1766299909914338</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>40878</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07134499894006352</v>
+        <v>0.1585708207850725</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>40909</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.04823731067857091</v>
+        <v>0.08658163211878783</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>40940</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.08379272521033153</v>
+        <v>0.05438146524972484</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>40969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06042227668225897</v>
+        <v>0.07800016572815617</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +561,7 @@
         <v>41000</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.08554761459336865</v>
+        <v>0.08818166004346321</v>
       </c>
     </row>
     <row r="17">
@@ -569,7 +569,7 @@
         <v>41030</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1749659613201915</v>
+        <v>-0.06667557342340545</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>41061</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01086506822629616</v>
+        <v>0.01847414256018897</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +585,7 @@
         <v>41091</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0288196841721399</v>
+        <v>0.03800097216280121</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +593,7 @@
         <v>41122</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01392233719800221</v>
+        <v>0.03457344725831493</v>
       </c>
     </row>
     <row r="21">
@@ -601,7 +601,7 @@
         <v>41153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1139708062559898</v>
+        <v>0.1746512549941243</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +609,7 @@
         <v>41183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1020676655190332</v>
+        <v>0.1993818201512939</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>41214</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05909832665100666</v>
+        <v>0.1625492928870472</v>
       </c>
     </row>
     <row r="24">
@@ -625,7 +625,7 @@
         <v>41244</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08706566837570665</v>
+        <v>0.1158878632982275</v>
       </c>
     </row>
     <row r="25">
@@ -633,7 +633,7 @@
         <v>41275</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0807242388947417</v>
+        <v>0.1360123827352231</v>
       </c>
     </row>
     <row r="26">
@@ -641,7 +641,7 @@
         <v>41306</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01986164434823218</v>
+        <v>0.09012396060517093</v>
       </c>
     </row>
     <row r="27">
@@ -649,7 +649,7 @@
         <v>41334</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03574814828999564</v>
+        <v>-0.05383124817720732</v>
       </c>
     </row>
     <row r="28">
@@ -657,7 +657,7 @@
         <v>41365</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1210657879438811</v>
+        <v>-0.08492181198268563</v>
       </c>
     </row>
     <row r="29">
@@ -665,7 +665,7 @@
         <v>41395</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.149126182433529</v>
+        <v>-0.05681644671528696</v>
       </c>
     </row>
     <row r="30">
@@ -673,7 +673,7 @@
         <v>41426</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2159994359412524</v>
+        <v>-0.1115902841907845</v>
       </c>
     </row>
     <row r="31">
@@ -681,7 +681,7 @@
         <v>41456</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.08151405636122633</v>
+        <v>-0.1066344170180749</v>
       </c>
     </row>
     <row r="32">
@@ -689,7 +689,7 @@
         <v>41487</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1644456711645437</v>
+        <v>0.04309075007619345</v>
       </c>
     </row>
     <row r="33">
@@ -697,7 +697,7 @@
         <v>41518</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07700951288182539</v>
+        <v>0.09354038948352615</v>
       </c>
     </row>
     <row r="34">
@@ -705,7 +705,7 @@
         <v>41548</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1167471432273345</v>
+        <v>0.2049209859159949</v>
       </c>
     </row>
     <row r="35">
@@ -713,7 +713,7 @@
         <v>41579</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01897250472059069</v>
+        <v>0.1106752575758675</v>
       </c>
     </row>
     <row r="36">
@@ -721,7 +721,7 @@
         <v>41609</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.09254724663565823</v>
+        <v>-0.02097853386941319</v>
       </c>
     </row>
     <row r="37">
@@ -729,7 +729,7 @@
         <v>41640</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0449336687036867</v>
+        <v>0.05117095241555376</v>
       </c>
     </row>
     <row r="38">
@@ -737,7 +737,7 @@
         <v>41671</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03081830214001653</v>
+        <v>-0.005870464829222824</v>
       </c>
     </row>
     <row r="39">
@@ -745,7 +745,7 @@
         <v>41699</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.09286335489468268</v>
+        <v>-0.1535841249495076</v>
       </c>
     </row>
     <row r="40">
@@ -753,7 +753,7 @@
         <v>41730</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1191222548114558</v>
+        <v>-0.1975587806698752</v>
       </c>
     </row>
     <row r="41">
@@ -761,7 +761,7 @@
         <v>41760</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1382402523765891</v>
+        <v>-0.174559727722542</v>
       </c>
     </row>
     <row r="42">
@@ -769,7 +769,7 @@
         <v>41791</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1028750409266718</v>
+        <v>-0.1235915182497962</v>
       </c>
     </row>
     <row r="43">
@@ -777,7 +777,7 @@
         <v>41821</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02718095423802299</v>
+        <v>0.0015196602414574</v>
       </c>
     </row>
     <row r="44">
@@ -785,7 +785,7 @@
         <v>41852</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.04321788382358931</v>
+        <v>-0.07483843948102725</v>
       </c>
     </row>
     <row r="45">
@@ -793,7 +793,7 @@
         <v>41883</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02022034903740829</v>
+        <v>0.002615318523846897</v>
       </c>
     </row>
     <row r="46">
@@ -801,7 +801,7 @@
         <v>41913</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05430405326955228</v>
+        <v>-0.008627588982278946</v>
       </c>
     </row>
     <row r="47">
@@ -809,7 +809,7 @@
         <v>41944</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05293825574499456</v>
+        <v>0.02112850673578334</v>
       </c>
     </row>
     <row r="48">
@@ -817,7 +817,7 @@
         <v>41974</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.03170754003714037</v>
+        <v>-0.02691730172515895</v>
       </c>
     </row>
     <row r="49">
@@ -825,7 +825,7 @@
         <v>42005</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04037821749428593</v>
+        <v>0.01100640940687166</v>
       </c>
     </row>
     <row r="50">
@@ -833,7 +833,7 @@
         <v>42036</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05874534279648624</v>
+        <v>-0.06556591592269591</v>
       </c>
     </row>
     <row r="51">
@@ -841,7 +841,7 @@
         <v>42064</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3022887418623312</v>
+        <v>0.06619180481200318</v>
       </c>
     </row>
     <row r="52">
@@ -849,7 +849,7 @@
         <v>42095</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.07099978177096745</v>
+        <v>-0.09201802933698353</v>
       </c>
     </row>
     <row r="53">
@@ -857,7 +857,7 @@
         <v>42125</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1091162278053794</v>
+        <v>-0.09629026681894409</v>
       </c>
     </row>
     <row r="54">
@@ -865,7 +865,7 @@
         <v>42156</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06270515779700965</v>
+        <v>-0.003135667984397607</v>
       </c>
     </row>
     <row r="55">
@@ -873,7 +873,7 @@
         <v>42186</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0918209929672333</v>
+        <v>-0.0199115945247442</v>
       </c>
     </row>
     <row r="56">
@@ -881,7 +881,7 @@
         <v>42217</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07063945997025223</v>
+        <v>0.0006440980676001646</v>
       </c>
     </row>
     <row r="57">
@@ -889,7 +889,7 @@
         <v>42248</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04831621862899529</v>
+        <v>0.08175333823306336</v>
       </c>
     </row>
     <row r="58">
@@ -897,7 +897,7 @@
         <v>42278</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07947419296853805</v>
+        <v>0.04361911148220348</v>
       </c>
     </row>
     <row r="59">
@@ -905,7 +905,7 @@
         <v>42309</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05946452907530549</v>
+        <v>-0.008652519517043756</v>
       </c>
     </row>
     <row r="60">
@@ -913,7 +913,7 @@
         <v>42339</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.08303039647129175</v>
+        <v>-0.06986412585301432</v>
       </c>
     </row>
     <row r="61">
@@ -921,7 +921,7 @@
         <v>42370</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1332237501111155</v>
+        <v>-0.1490220235639466</v>
       </c>
     </row>
     <row r="62">
@@ -929,7 +929,7 @@
         <v>42401</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.009466135938641759</v>
+        <v>-0.08542255883995717</v>
       </c>
     </row>
     <row r="63">
@@ -937,7 +937,7 @@
         <v>42430</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1479219832609015</v>
+        <v>-0.2091918944316983</v>
       </c>
     </row>
     <row r="64">
@@ -945,7 +945,7 @@
         <v>42461</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03718955766817485</v>
+        <v>-0.04693998221624278</v>
       </c>
     </row>
     <row r="65">
@@ -953,7 +953,7 @@
         <v>42491</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.09955652155728013</v>
+        <v>-0.1301902581200751</v>
       </c>
     </row>
     <row r="66">
@@ -961,7 +961,7 @@
         <v>42522</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.008916688033231097</v>
+        <v>-0.03184881847635056</v>
       </c>
     </row>
     <row r="67">
@@ -969,7 +969,7 @@
         <v>42552</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1299901584172396</v>
+        <v>0.02149118444463018</v>
       </c>
     </row>
     <row r="68">
@@ -977,7 +977,7 @@
         <v>42583</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01129637571998263</v>
+        <v>0.004401593561512338</v>
       </c>
     </row>
     <row r="69">
@@ -985,7 +985,7 @@
         <v>42614</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.01763798796760375</v>
+        <v>0.005817644158116704</v>
       </c>
     </row>
     <row r="70">
@@ -993,7 +993,7 @@
         <v>42644</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.01448328385637244</v>
+        <v>-0.00628005974219983</v>
       </c>
     </row>
     <row r="71">
@@ -1001,7 +1001,7 @@
         <v>42675</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2402357833696585</v>
+        <v>0.2766432300610538</v>
       </c>
     </row>
     <row r="72">
@@ -1009,7 +1009,7 @@
         <v>42705</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1014221044198259</v>
+        <v>0.1501458770523001</v>
       </c>
     </row>
     <row r="73">
@@ -1017,7 +1017,7 @@
         <v>42736</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.03145287948419077</v>
+        <v>0.0507577074263165</v>
       </c>
     </row>
     <row r="74">
@@ -1025,7 +1025,7 @@
         <v>42767</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03396776437713749</v>
+        <v>0.09416386729024213</v>
       </c>
     </row>
     <row r="75">
@@ -1033,7 +1033,7 @@
         <v>42795</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1221589488624047</v>
+        <v>-0.04243911670453203</v>
       </c>
     </row>
     <row r="76">
@@ -1041,7 +1041,7 @@
         <v>42826</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3124092636853198</v>
+        <v>-0.2282295741488821</v>
       </c>
     </row>
     <row r="77">
@@ -1049,7 +1049,7 @@
         <v>42856</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.04698256433468109</v>
+        <v>-0.04599644618858756</v>
       </c>
     </row>
     <row r="78">
@@ -1057,7 +1057,7 @@
         <v>42887</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.04365406517684721</v>
+        <v>-0.07243531987426119</v>
       </c>
     </row>
     <row r="79">
@@ -1065,7 +1065,7 @@
         <v>42917</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01191128209193795</v>
+        <v>0.01161280077663458</v>
       </c>
     </row>
     <row r="80">
@@ -1073,7 +1073,7 @@
         <v>42948</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.04012136639734858</v>
+        <v>-0.04176813201715292</v>
       </c>
     </row>
     <row r="81">
@@ -1081,7 +1081,7 @@
         <v>42979</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.06240242897430812</v>
+        <v>-0.04007630960804206</v>
       </c>
     </row>
     <row r="82">
@@ -1089,7 +1089,7 @@
         <v>43009</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04868487538472536</v>
+        <v>0.03340446417748853</v>
       </c>
     </row>
     <row r="83">
@@ -1097,7 +1097,7 @@
         <v>43040</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1032424267801386</v>
+        <v>0.06574051213278793</v>
       </c>
     </row>
     <row r="84">
@@ -1105,7 +1105,7 @@
         <v>43070</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.01120882979129306</v>
+        <v>-0.07165062638952989</v>
       </c>
     </row>
     <row r="85">
@@ -1113,7 +1113,7 @@
         <v>43101</v>
       </c>
       <c r="B85" t="n">
-        <v>0.106998480030969</v>
+        <v>0.1067696987637124</v>
       </c>
     </row>
     <row r="86">
@@ -1121,7 +1121,7 @@
         <v>43132</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02068666653170607</v>
+        <v>0.01762750208115897</v>
       </c>
     </row>
     <row r="87">
@@ -1129,7 +1129,7 @@
         <v>43160</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04900468164461487</v>
+        <v>-0.05270681946291267</v>
       </c>
     </row>
     <row r="88">
@@ -1137,7 +1137,7 @@
         <v>43191</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.05807157667395457</v>
+        <v>-0.1137807983879751</v>
       </c>
     </row>
     <row r="89">
@@ -1145,7 +1145,7 @@
         <v>43221</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1363490589066308</v>
+        <v>-0.1776868198406736</v>
       </c>
     </row>
     <row r="90">
@@ -1153,7 +1153,7 @@
         <v>43252</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08854077062094189</v>
+        <v>-0.040335433238212</v>
       </c>
     </row>
     <row r="91">
@@ -1161,7 +1161,7 @@
         <v>43282</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1947835231641452</v>
+        <v>0.05659651433368825</v>
       </c>
     </row>
     <row r="92">
@@ -1169,7 +1169,7 @@
         <v>43313</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09617236824769794</v>
+        <v>0.05798882243337283</v>
       </c>
     </row>
     <row r="93">
@@ -1177,7 +1177,7 @@
         <v>43344</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1764795856839442</v>
+        <v>0.1339533914658955</v>
       </c>
     </row>
     <row r="94">
@@ -1185,7 +1185,7 @@
         <v>43374</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1986840004637654</v>
+        <v>0.1544606408458593</v>
       </c>
     </row>
     <row r="95">
@@ -1193,7 +1193,7 @@
         <v>43405</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0930327757878619</v>
+        <v>0.0375212080659822</v>
       </c>
     </row>
     <row r="96">
@@ -1201,7 +1201,7 @@
         <v>43435</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1646369680319925</v>
+        <v>0.09773406152989535</v>
       </c>
     </row>
     <row r="97">
@@ -1209,7 +1209,7 @@
         <v>43466</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3174816609468662</v>
+        <v>0.2315303034801269</v>
       </c>
     </row>
     <row r="98">
@@ -1217,7 +1217,7 @@
         <v>43497</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3029519483963175</v>
+        <v>0.1490381529056859</v>
       </c>
     </row>
     <row r="99">
@@ -1225,7 +1225,7 @@
         <v>43525</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.01234552724994318</v>
+        <v>-0.1525383661064123</v>
       </c>
     </row>
     <row r="100">
@@ -1233,7 +1233,7 @@
         <v>43556</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.0787792657308993</v>
+        <v>-0.1598931410494064</v>
       </c>
     </row>
     <row r="101">
@@ -1241,7 +1241,7 @@
         <v>43586</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3007358815054043</v>
+        <v>0.06798783614323306</v>
       </c>
     </row>
     <row r="102">
@@ -1249,7 +1249,7 @@
         <v>43617</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1731168587713174</v>
+        <v>-0.05243337391154719</v>
       </c>
     </row>
     <row r="103">
@@ -1257,7 +1257,7 @@
         <v>43647</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1008413720837392</v>
+        <v>-0.03099747625379771</v>
       </c>
     </row>
     <row r="104">
@@ -1265,7 +1265,7 @@
         <v>43678</v>
       </c>
       <c r="B104" t="n">
-        <v>0.489920619217686</v>
+        <v>0.2271976459245277</v>
       </c>
     </row>
     <row r="105">
@@ -1273,7 +1273,7 @@
         <v>43709</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2087112300810119</v>
+        <v>0.01713421894224463</v>
       </c>
     </row>
     <row r="106">
@@ -1281,7 +1281,7 @@
         <v>43739</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2185534066044846</v>
+        <v>0.09549104594807624</v>
       </c>
     </row>
     <row r="107">
@@ -1289,7 +1289,7 @@
         <v>43770</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2890828459921159</v>
+        <v>0.146622217643826</v>
       </c>
     </row>
     <row r="108">
@@ -1297,7 +1297,7 @@
         <v>43800</v>
       </c>
       <c r="B108" t="n">
-        <v>0.07840523642500051</v>
+        <v>-0.04717846671909944</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/M1_riskprem_exante.xlsx
+++ b/datasets/M1_riskprem_exante.xlsx
@@ -449,7 +449,7 @@
         <v>40575</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02564443535331167</v>
+        <v>0.09025095265582818</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         <v>40603</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0819407396473875</v>
+        <v>-0.08447708475129155</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>40634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.139273263933123</v>
+        <v>0.1272126248779819</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         <v>40664</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02533359595595372</v>
+        <v>0.1407559801064623</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>40695</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.008263878792215721</v>
+        <v>0.002196222199271188</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         <v>40725</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03012009624468408</v>
+        <v>0.07099883250228031</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>40756</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1043178430834822</v>
+        <v>0.01105903781430067</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>40787</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1011248330850395</v>
+        <v>0.07592219474323215</v>
       </c>
     </row>
     <row r="10">
@@ -513,7 +513,7 @@
         <v>40817</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2766260279289899</v>
+        <v>0.1965622971503189</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         <v>40848</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1766299909914338</v>
+        <v>0.1730166665723909</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>40878</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1585708207850725</v>
+        <v>0.01819665852076334</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>40909</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08658163211878783</v>
+        <v>0.2262718335999774</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>40940</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05438146524972484</v>
+        <v>0.07012232150308809</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>40969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07800016572815617</v>
+        <v>-0.1819570705494599</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +561,7 @@
         <v>41000</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08818166004346321</v>
+        <v>0.2809804231839008</v>
       </c>
     </row>
     <row r="17">
@@ -569,7 +569,7 @@
         <v>41030</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.06667557342340545</v>
+        <v>-0.1999497298074984</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +577,7 @@
         <v>41061</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01847414256018897</v>
+        <v>0.001102673099388842</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +585,7 @@
         <v>41091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03800097216280121</v>
+        <v>0.03023039431170955</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +593,7 @@
         <v>41122</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03457344725831493</v>
+        <v>-0.07784336503574044</v>
       </c>
     </row>
     <row r="21">
@@ -601,7 +601,7 @@
         <v>41153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1746512549941243</v>
+        <v>0.03924187601127382</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +609,7 @@
         <v>41183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1993818201512939</v>
+        <v>0.1214354209570413</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>41214</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1625492928870472</v>
+        <v>0.07377124496749174</v>
       </c>
     </row>
     <row r="24">
@@ -625,7 +625,7 @@
         <v>41244</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1158878632982275</v>
+        <v>0.04457565066519922</v>
       </c>
     </row>
     <row r="25">
@@ -633,7 +633,7 @@
         <v>41275</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1360123827352231</v>
+        <v>0.3454034637421454</v>
       </c>
     </row>
     <row r="26">
@@ -641,7 +641,7 @@
         <v>41306</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09012396060517093</v>
+        <v>0.03638061137011788</v>
       </c>
     </row>
     <row r="27">
@@ -649,7 +649,7 @@
         <v>41334</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.05383124817720732</v>
+        <v>-0.06966924577677154</v>
       </c>
     </row>
     <row r="28">
@@ -657,7 +657,7 @@
         <v>41365</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08492181198268563</v>
+        <v>-0.098675560556511</v>
       </c>
     </row>
     <row r="29">
@@ -665,7 +665,7 @@
         <v>41395</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.05681644671528696</v>
+        <v>-0.09406700779463767</v>
       </c>
     </row>
     <row r="30">
@@ -673,7 +673,7 @@
         <v>41426</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1115902841907845</v>
+        <v>-0.03839426425561104</v>
       </c>
     </row>
     <row r="31">
@@ -681,7 +681,7 @@
         <v>41456</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1066344170180749</v>
+        <v>0.03710740709879388</v>
       </c>
     </row>
     <row r="32">
@@ -689,7 +689,7 @@
         <v>41487</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04309075007619345</v>
+        <v>-0.05842085874527794</v>
       </c>
     </row>
     <row r="33">
@@ -697,7 +697,7 @@
         <v>41518</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09354038948352615</v>
+        <v>0.09470956919545588</v>
       </c>
     </row>
     <row r="34">
@@ -705,7 +705,7 @@
         <v>41548</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2049209859159949</v>
+        <v>-0.01454576614014809</v>
       </c>
     </row>
     <row r="35">
@@ -713,7 +713,7 @@
         <v>41579</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1106752575758675</v>
+        <v>0.1196529224993316</v>
       </c>
     </row>
     <row r="36">
@@ -721,7 +721,7 @@
         <v>41609</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.02097853386941319</v>
+        <v>-0.04403845689157716</v>
       </c>
     </row>
     <row r="37">
@@ -729,7 +729,7 @@
         <v>41640</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05117095241555376</v>
+        <v>0.1377676099999092</v>
       </c>
     </row>
     <row r="38">
@@ -737,7 +737,7 @@
         <v>41671</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.005870464829222824</v>
+        <v>0.08540917043110853</v>
       </c>
     </row>
     <row r="39">
@@ -745,7 +745,7 @@
         <v>41699</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1535841249495076</v>
+        <v>-0.01374799649128253</v>
       </c>
     </row>
     <row r="40">
@@ -753,7 +753,7 @@
         <v>41730</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1975587806698752</v>
+        <v>-0.03696779783938719</v>
       </c>
     </row>
     <row r="41">
@@ -761,7 +761,7 @@
         <v>41760</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.174559727722542</v>
+        <v>-0.07488356000266845</v>
       </c>
     </row>
     <row r="42">
@@ -769,7 +769,7 @@
         <v>41791</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1235915182497962</v>
+        <v>-0.03165287632535574</v>
       </c>
     </row>
     <row r="43">
@@ -777,7 +777,7 @@
         <v>41821</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0015196602414574</v>
+        <v>0.01965237846217392</v>
       </c>
     </row>
     <row r="44">
@@ -785,7 +785,7 @@
         <v>41852</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.07483843948102725</v>
+        <v>-0.03286285623950543</v>
       </c>
     </row>
     <row r="45">
@@ -793,7 +793,7 @@
         <v>41883</v>
       </c>
       <c r="B45" t="n">
-        <v>0.002615318523846897</v>
+        <v>0.1984457308000301</v>
       </c>
     </row>
     <row r="46">
@@ -801,7 +801,7 @@
         <v>41913</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.008627588982278946</v>
+        <v>-0.04421612263589232</v>
       </c>
     </row>
     <row r="47">
@@ -809,7 +809,7 @@
         <v>41944</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02112850673578334</v>
+        <v>0.05165217106547795</v>
       </c>
     </row>
     <row r="48">
@@ -817,7 +817,7 @@
         <v>41974</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02691730172515895</v>
+        <v>-0.0639238731919969</v>
       </c>
     </row>
     <row r="49">
@@ -825,7 +825,7 @@
         <v>42005</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01100640940687166</v>
+        <v>0.1099859275249176</v>
       </c>
     </row>
     <row r="50">
@@ -833,7 +833,7 @@
         <v>42036</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.06556591592269591</v>
+        <v>0.1483953806588357</v>
       </c>
     </row>
     <row r="51">
@@ -841,7 +841,7 @@
         <v>42064</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06619180481200318</v>
+        <v>-0.1408574479915215</v>
       </c>
     </row>
     <row r="52">
@@ -849,7 +849,7 @@
         <v>42095</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.09201802933698353</v>
+        <v>0.01491536253913816</v>
       </c>
     </row>
     <row r="53">
@@ -857,7 +857,7 @@
         <v>42125</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.09629026681894409</v>
+        <v>-0.04458364808498319</v>
       </c>
     </row>
     <row r="54">
@@ -865,7 +865,7 @@
         <v>42156</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.003135667984397607</v>
+        <v>0.09913012370971662</v>
       </c>
     </row>
     <row r="55">
@@ -873,7 +873,7 @@
         <v>42186</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0199115945247442</v>
+        <v>-0.05131729378231833</v>
       </c>
     </row>
     <row r="56">
@@ -881,7 +881,7 @@
         <v>42217</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0006440980676001646</v>
+        <v>-0.1018404832490969</v>
       </c>
     </row>
     <row r="57">
@@ -889,7 +889,7 @@
         <v>42248</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08175333823306336</v>
+        <v>0.1266286639454299</v>
       </c>
     </row>
     <row r="58">
@@ -897,7 +897,7 @@
         <v>42278</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04361911148220348</v>
+        <v>-0.006718553823595181</v>
       </c>
     </row>
     <row r="59">
@@ -905,7 +905,7 @@
         <v>42309</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.008652519517043756</v>
+        <v>-0.1897710469492193</v>
       </c>
     </row>
     <row r="60">
@@ -913,7 +913,7 @@
         <v>42339</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.06986412585301432</v>
+        <v>0.01892233939105472</v>
       </c>
     </row>
     <row r="61">
@@ -921,7 +921,7 @@
         <v>42370</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1490220235639466</v>
+        <v>-0.06299301742299408</v>
       </c>
     </row>
     <row r="62">
@@ -929,7 +929,7 @@
         <v>42401</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.08542255883995717</v>
+        <v>-0.06239344784151297</v>
       </c>
     </row>
     <row r="63">
@@ -937,7 +937,7 @@
         <v>42430</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.2091918944316983</v>
+        <v>0.03410747146809581</v>
       </c>
     </row>
     <row r="64">
@@ -945,7 +945,7 @@
         <v>42461</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.04693998221624278</v>
+        <v>-0.07291076246547146</v>
       </c>
     </row>
     <row r="65">
@@ -953,7 +953,7 @@
         <v>42491</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1301902581200751</v>
+        <v>-0.05744403555175298</v>
       </c>
     </row>
     <row r="66">
@@ -961,7 +961,7 @@
         <v>42522</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.03184881847635056</v>
+        <v>0.1122294323294507</v>
       </c>
     </row>
     <row r="67">
@@ -969,7 +969,7 @@
         <v>42552</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02149118444463018</v>
+        <v>-0.06730292789882832</v>
       </c>
     </row>
     <row r="68">
@@ -977,7 +977,7 @@
         <v>42583</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004401593561512338</v>
+        <v>0.08818941835839714</v>
       </c>
     </row>
     <row r="69">
@@ -985,7 +985,7 @@
         <v>42614</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005817644158116704</v>
+        <v>0.05994908026983477</v>
       </c>
     </row>
     <row r="70">
@@ -993,7 +993,7 @@
         <v>42644</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.00628005974219983</v>
+        <v>-0.04990267199352103</v>
       </c>
     </row>
     <row r="71">
@@ -1001,7 +1001,7 @@
         <v>42675</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2766432300610538</v>
+        <v>0.08806718802945629</v>
       </c>
     </row>
     <row r="72">
@@ -1009,7 +1009,7 @@
         <v>42705</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1501458770523001</v>
+        <v>0.1704276094829886</v>
       </c>
     </row>
     <row r="73">
@@ -1017,7 +1017,7 @@
         <v>42736</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0507577074263165</v>
+        <v>0.06896351509928872</v>
       </c>
     </row>
     <row r="74">
@@ -1025,7 +1025,7 @@
         <v>42767</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09416386729024213</v>
+        <v>-0.212115028662488</v>
       </c>
     </row>
     <row r="75">
@@ -1033,7 +1033,7 @@
         <v>42795</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.04243911670453203</v>
+        <v>0.005920708808486178</v>
       </c>
     </row>
     <row r="76">
@@ -1041,7 +1041,7 @@
         <v>42826</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.2282295741488821</v>
+        <v>-0.1788799679642536</v>
       </c>
     </row>
     <row r="77">
@@ -1049,7 +1049,7 @@
         <v>42856</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.04599644618858756</v>
+        <v>0.05393619115907372</v>
       </c>
     </row>
     <row r="78">
@@ -1057,7 +1057,7 @@
         <v>42887</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.07243531987426119</v>
+        <v>-0.01706737819702346</v>
       </c>
     </row>
     <row r="79">
@@ -1065,7 +1065,7 @@
         <v>42917</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01161280077663458</v>
+        <v>0.1302244226697439</v>
       </c>
     </row>
     <row r="80">
@@ -1073,7 +1073,7 @@
         <v>42948</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.04176813201715292</v>
+        <v>-0.04808875584623861</v>
       </c>
     </row>
     <row r="81">
@@ -1081,7 +1081,7 @@
         <v>42979</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.04007630960804206</v>
+        <v>0.1331383969469573</v>
       </c>
     </row>
     <row r="82">
@@ -1089,7 +1089,7 @@
         <v>43009</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03340446417748853</v>
+        <v>0.08895935420396313</v>
       </c>
     </row>
     <row r="83">
@@ -1097,7 +1097,7 @@
         <v>43040</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06574051213278793</v>
+        <v>0.4767197680460381</v>
       </c>
     </row>
     <row r="84">
@@ -1105,7 +1105,7 @@
         <v>43070</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.07165062638952989</v>
+        <v>-0.1131053636220552</v>
       </c>
     </row>
     <row r="85">
@@ -1113,7 +1113,7 @@
         <v>43101</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1067696987637124</v>
+        <v>0.5831117226478303</v>
       </c>
     </row>
     <row r="86">
@@ -1121,7 +1121,7 @@
         <v>43132</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01762750208115897</v>
+        <v>0.2790789432199196</v>
       </c>
     </row>
     <row r="87">
@@ -1129,7 +1129,7 @@
         <v>43160</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.05270681946291267</v>
+        <v>-0.1222134608301492</v>
       </c>
     </row>
     <row r="88">
@@ -1137,7 +1137,7 @@
         <v>43191</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1137807983879751</v>
+        <v>-0.01142513429671787</v>
       </c>
     </row>
     <row r="89">
@@ -1145,7 +1145,7 @@
         <v>43221</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1776868198406736</v>
+        <v>-0.03791583867927224</v>
       </c>
     </row>
     <row r="90">
@@ -1153,7 +1153,7 @@
         <v>43252</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.040335433238212</v>
+        <v>0.1049001140062527</v>
       </c>
     </row>
     <row r="91">
@@ -1161,7 +1161,7 @@
         <v>43282</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05659651433368825</v>
+        <v>0.06979365147909274</v>
       </c>
     </row>
     <row r="92">
@@ -1169,7 +1169,7 @@
         <v>43313</v>
       </c>
       <c r="B92" t="n">
-        <v>0.05798882243337283</v>
+        <v>0.03790179416350683</v>
       </c>
     </row>
     <row r="93">
@@ -1177,7 +1177,7 @@
         <v>43344</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1339533914658955</v>
+        <v>-0.005100683566939713</v>
       </c>
     </row>
     <row r="94">
@@ -1185,7 +1185,7 @@
         <v>43374</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1544606408458593</v>
+        <v>0.09998738669117541</v>
       </c>
     </row>
     <row r="95">
@@ -1193,7 +1193,7 @@
         <v>43405</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0375212080659822</v>
+        <v>0.1095399521181072</v>
       </c>
     </row>
     <row r="96">
@@ -1201,7 +1201,7 @@
         <v>43435</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09773406152989535</v>
+        <v>0.01674733460926224</v>
       </c>
     </row>
     <row r="97">
@@ -1209,7 +1209,7 @@
         <v>43466</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2315303034801269</v>
+        <v>0.321092821639425</v>
       </c>
     </row>
     <row r="98">
@@ -1217,7 +1217,7 @@
         <v>43497</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1490381529056859</v>
+        <v>0.1891357839878468</v>
       </c>
     </row>
     <row r="99">
@@ -1225,7 +1225,7 @@
         <v>43525</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1525383661064123</v>
+        <v>-0.01445976548366598</v>
       </c>
     </row>
     <row r="100">
@@ -1233,7 +1233,7 @@
         <v>43556</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1598931410494064</v>
+        <v>0.1520463345177689</v>
       </c>
     </row>
     <row r="101">
@@ -1241,7 +1241,7 @@
         <v>43586</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06798783614323306</v>
+        <v>0.0370892302828534</v>
       </c>
     </row>
     <row r="102">
@@ -1249,7 +1249,7 @@
         <v>43617</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.05243337391154719</v>
+        <v>0.06177373134196051</v>
       </c>
     </row>
     <row r="103">
@@ -1257,7 +1257,7 @@
         <v>43647</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.03099747625379771</v>
+        <v>0.1557441660642185</v>
       </c>
     </row>
     <row r="104">
@@ -1265,7 +1265,7 @@
         <v>43678</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2271976459245277</v>
+        <v>0.03218606270996176</v>
       </c>
     </row>
     <row r="105">
@@ -1273,7 +1273,7 @@
         <v>43709</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01713421894224463</v>
+        <v>0.1493633862817191</v>
       </c>
     </row>
     <row r="106">
@@ -1281,7 +1281,7 @@
         <v>43739</v>
       </c>
       <c r="B106" t="n">
-        <v>0.09549104594807624</v>
+        <v>0.1777482728156966</v>
       </c>
     </row>
     <row r="107">
@@ -1289,7 +1289,7 @@
         <v>43770</v>
       </c>
       <c r="B107" t="n">
-        <v>0.146622217643826</v>
+        <v>0.2240754896906883</v>
       </c>
     </row>
     <row r="108">
@@ -1297,7 +1297,7 @@
         <v>43800</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.04717846671909944</v>
+        <v>-0.09504239686062356</v>
       </c>
     </row>
   </sheetData>
